--- a/tables/user_crude.xlsx
+++ b/tables/user_crude.xlsx
@@ -416,7 +416,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>1.54968790802833</v>
+        <v>1.5953389880546</v>
       </c>
       <c r="F2" t="n">
         <v>0.635</v>
@@ -438,14 +438,14 @@
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>0.139761942375159</v>
+        <v>1.3787660946991</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>-1.13023805762484</v>
+        <v>0.108766094699099</v>
       </c>
       <c r="H3" t="n">
-        <v>1.40976194237516</v>
+        <v>2.6487660946991</v>
       </c>
     </row>
   </sheetData>

--- a/tables/user_crude.xlsx
+++ b/tables/user_crude.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">all_info_expected</t>
   </si>
@@ -20,6 +20,12 @@
     <t xml:space="preserve">study_id</t>
   </si>
   <si>
+    <t xml:space="preserve">natural_es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">converted_es</t>
+  </si>
+  <si>
     <t xml:space="preserve">measure</t>
   </si>
   <si>
@@ -39,6 +45,12 @@
   </si>
   <si>
     <t xml:space="preserve">user_input_crude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A</t>
   </si>
   <si>
     <t xml:space="preserve">RR</t>
@@ -401,51 +413,69 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.5953389880546</v>
-      </c>
-      <c r="F2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.74396880539171</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.635</v>
       </c>
-      <c r="G2"/>
-      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.3787660946991</v>
-      </c>
-      <c r="F3"/>
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
       <c r="G3" t="n">
-        <v>0.108766094699099</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.6487660946991</v>
+        <v>0.122217632724249</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3" t="n">
+        <v>-1.14778236727575</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.39221763272425</v>
       </c>
     </row>
   </sheetData>

--- a/tables/user_crude.xlsx
+++ b/tables/user_crude.xlsx
@@ -440,7 +440,7 @@
         <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>1.74396880539171</v>
+        <v>1.56653041142282</v>
       </c>
       <c r="H2" t="n">
         <v>0.635</v>
@@ -468,14 +468,14 @@
         <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>0.122217632724249</v>
+        <v>0.989541193613748</v>
       </c>
       <c r="H3"/>
       <c r="I3" t="n">
-        <v>-1.14778236727575</v>
+        <v>-0.280458806386252</v>
       </c>
       <c r="J3" t="n">
-        <v>1.39221763272425</v>
+        <v>2.25954119361375</v>
       </c>
     </row>
   </sheetData>

--- a/tables/user_crude.xlsx
+++ b/tables/user_crude.xlsx
@@ -440,7 +440,7 @@
         <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>1.56653041142282</v>
+        <v>1.02604159583327</v>
       </c>
       <c r="H2" t="n">
         <v>0.635</v>
@@ -468,14 +468,14 @@
         <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>0.989541193613748</v>
+        <v>0.631271776841858</v>
       </c>
       <c r="H3"/>
       <c r="I3" t="n">
-        <v>-0.280458806386252</v>
+        <v>-0.638728223158142</v>
       </c>
       <c r="J3" t="n">
-        <v>2.25954119361375</v>
+        <v>1.90127177684186</v>
       </c>
     </row>
   </sheetData>
